--- a/Date tracking Gantt chart1.xlsx
+++ b/Date tracking Gantt chart1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D6971-5F0E-4CE8-9848-0EAF97DDF28E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E134E07-CFB7-49AE-8484-65A220ABECE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="504" windowWidth="19392" windowHeight="10392" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
